--- a/base_datos/inventario/compras_stock.xlsx
+++ b/base_datos/inventario/compras_stock.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novakorp\Desktop\ITBA\data_aplications\etl_airflow\base_datos\inventario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novakorp\Desktop\ITBA\data_aplications\etl_airflow\base_datos\compras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="1179">
   <si>
     <t xml:space="preserve">Modelo </t>
   </si>
@@ -3561,195 +3561,6 @@
   </si>
   <si>
     <t>MECHA EZETA ACERO RAPIDO DE 11.50 MM</t>
-  </si>
-  <si>
-    <t>ID-00000407</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 11.75 MM</t>
-  </si>
-  <si>
-    <t>ID-00000408</t>
-  </si>
-  <si>
-    <t>03318</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.00 MM</t>
-  </si>
-  <si>
-    <t>ID-00000409</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.25 MM</t>
-  </si>
-  <si>
-    <t>ID-00000410</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.50 MM</t>
-  </si>
-  <si>
-    <t>ID-00000411</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 12.75 MM</t>
-  </si>
-  <si>
-    <t>ID-00000412</t>
-  </si>
-  <si>
-    <t>03326</t>
-  </si>
-  <si>
-    <t>MECHA EZETA ACERO RAPIDO DE 13.00 MM</t>
-  </si>
-  <si>
-    <t>ID-00000413</t>
-  </si>
-  <si>
-    <t>TIJERA P/CORTA ALAMBRE RUCCI</t>
-  </si>
-  <si>
-    <t>RUCCI</t>
-  </si>
-  <si>
-    <t>ID-00000414</t>
-  </si>
-  <si>
-    <t>03688.38</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 3.5 X 25MM</t>
-  </si>
-  <si>
-    <t>ARGENRAP</t>
-  </si>
-  <si>
-    <t>ID-00000415</t>
-  </si>
-  <si>
-    <t>03688.46</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4 X 10 MM</t>
-  </si>
-  <si>
-    <t>RERAR</t>
-  </si>
-  <si>
-    <t>ID-00000416</t>
-  </si>
-  <si>
-    <t>03688.54</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4 X 14 MM</t>
-  </si>
-  <si>
-    <t>BULONFER S.A</t>
-  </si>
-  <si>
-    <t>ID-00000417</t>
-  </si>
-  <si>
-    <t>03688.60</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4 X 20 MM</t>
-  </si>
-  <si>
-    <t>ID-00000418</t>
-  </si>
-  <si>
-    <t>03688.80</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 4.8 X 14 MM</t>
-  </si>
-  <si>
-    <t>ID-00000419</t>
-  </si>
-  <si>
-    <t>76.5.20</t>
-  </si>
-  <si>
-    <t>REMACHE POP DE 5 X 20 MM</t>
-  </si>
-  <si>
-    <t>ID-00000420</t>
-  </si>
-  <si>
-    <t>304MI071016</t>
-  </si>
-  <si>
-    <t>ABRAZADERA 7 MM DE</t>
-  </si>
-  <si>
-    <t>PERFECTO</t>
-  </si>
-  <si>
-    <t>ID-00000421</t>
-  </si>
-  <si>
-    <t>APAREJO A PALANCA X 3 TN</t>
-  </si>
-  <si>
-    <t>GAN-MAR</t>
-  </si>
-  <si>
-    <t>ID-00000422</t>
-  </si>
-  <si>
-    <t>APAREJO A PALANCA X 2 TN</t>
-  </si>
-  <si>
-    <t>ID-00000423</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS Nº 2 PAPAGNO</t>
-  </si>
-  <si>
-    <t>PAPAGNO</t>
-  </si>
-  <si>
-    <t>ID-00000424</t>
-  </si>
-  <si>
-    <t>0479.85</t>
-  </si>
-  <si>
-    <t>CUCHARA DE ALBAÑIL 5 1/2</t>
-  </si>
-  <si>
-    <t>ID-00000425</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS Nº 7 PAPAGNO</t>
-  </si>
-  <si>
-    <t>ID-00000426</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS Nº 25 PAPAGNO</t>
-  </si>
-  <si>
-    <t>ID-00000427</t>
-  </si>
-  <si>
-    <t>00644.75</t>
-  </si>
-  <si>
-    <t>CAJA DE HERRAMIENTAS TIPO FUELLE ROJA</t>
-  </si>
-  <si>
-    <t>ID-00000428</t>
-  </si>
-  <si>
-    <t>METRO DE MADERA DE 1.00 MTS.</t>
-  </si>
-  <si>
-    <t>RACORT</t>
   </si>
   <si>
     <t>id_product</t>
@@ -4087,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS429"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR5" sqref="AR5"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="C410" sqref="C410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4114,7 +3925,7 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1241</v>
+        <v>1178</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -59839,3015 +59650,1037 @@
       </c>
     </row>
     <row r="408" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A408" s="1" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B408" s="4">
-        <v>100001175</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E408" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F408" s="3">
-        <v>1</v>
-      </c>
-      <c r="G408" s="2">
-        <v>0</v>
-      </c>
-      <c r="H408" s="2">
-        <v>0</v>
-      </c>
-      <c r="I408" s="2">
-        <v>0</v>
-      </c>
-      <c r="J408" s="2">
-        <v>0</v>
-      </c>
-      <c r="K408" s="2">
-        <v>0</v>
-      </c>
-      <c r="L408" s="2">
-        <v>0</v>
-      </c>
-      <c r="M408" s="3">
-        <v>1</v>
-      </c>
-      <c r="N408" s="2">
-        <v>0</v>
-      </c>
-      <c r="O408" s="2">
-        <v>0</v>
-      </c>
-      <c r="P408" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q408" s="2">
-        <v>0</v>
-      </c>
-      <c r="R408" s="2">
-        <v>0</v>
-      </c>
-      <c r="S408" s="2">
-        <v>0</v>
-      </c>
-      <c r="T408" s="2">
-        <v>1</v>
-      </c>
-      <c r="U408" s="2">
-        <v>0</v>
-      </c>
-      <c r="V408" s="3">
-        <v>1</v>
-      </c>
-      <c r="W408" s="2">
-        <v>0</v>
-      </c>
-      <c r="X408" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y408" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB408" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH408" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM408" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR408" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS408" s="2">
-        <v>0</v>
-      </c>
+      <c r="A408" s="1"/>
+      <c r="B408" s="4"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="3"/>
+      <c r="G408" s="2"/>
+      <c r="H408" s="2"/>
+      <c r="I408" s="2"/>
+      <c r="J408" s="2"/>
+      <c r="K408" s="2"/>
+      <c r="L408" s="2"/>
+      <c r="M408" s="3"/>
+      <c r="N408" s="2"/>
+      <c r="O408" s="2"/>
+      <c r="P408" s="2"/>
+      <c r="Q408" s="2"/>
+      <c r="R408" s="2"/>
+      <c r="S408" s="2"/>
+      <c r="T408" s="2"/>
+      <c r="U408" s="2"/>
+      <c r="V408" s="3"/>
+      <c r="W408" s="2"/>
+      <c r="X408" s="2"/>
+      <c r="Y408" s="2"/>
+      <c r="Z408" s="2"/>
+      <c r="AA408" s="2"/>
+      <c r="AB408" s="3"/>
+      <c r="AC408" s="2"/>
+      <c r="AD408" s="2"/>
+      <c r="AE408" s="2"/>
+      <c r="AF408" s="2"/>
+      <c r="AG408" s="2"/>
+      <c r="AH408" s="3"/>
+      <c r="AI408" s="2"/>
+      <c r="AJ408" s="2"/>
+      <c r="AK408" s="2"/>
+      <c r="AL408" s="2"/>
+      <c r="AM408" s="3"/>
+      <c r="AN408" s="2"/>
+      <c r="AO408" s="2"/>
+      <c r="AP408" s="2"/>
+      <c r="AQ408" s="2"/>
+      <c r="AR408" s="2"/>
+      <c r="AS408" s="2"/>
     </row>
     <row r="409" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A409" s="1" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>1182</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E409" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F409" s="3">
-        <v>1</v>
-      </c>
-      <c r="G409" s="2">
-        <v>0</v>
-      </c>
-      <c r="H409" s="2">
-        <v>0</v>
-      </c>
-      <c r="I409" s="2">
-        <v>0</v>
-      </c>
-      <c r="J409" s="2">
-        <v>0</v>
-      </c>
-      <c r="K409" s="2">
-        <v>0</v>
-      </c>
-      <c r="L409" s="2">
-        <v>0</v>
-      </c>
-      <c r="M409" s="3">
-        <v>1</v>
-      </c>
-      <c r="N409" s="2">
-        <v>0</v>
-      </c>
-      <c r="O409" s="2">
-        <v>0</v>
-      </c>
-      <c r="P409" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q409" s="2">
-        <v>0</v>
-      </c>
-      <c r="R409" s="2">
-        <v>0</v>
-      </c>
-      <c r="S409" s="2">
-        <v>0</v>
-      </c>
-      <c r="T409" s="2">
-        <v>1</v>
-      </c>
-      <c r="U409" s="2">
-        <v>0</v>
-      </c>
-      <c r="V409" s="3">
-        <v>1</v>
-      </c>
-      <c r="W409" s="2">
-        <v>0</v>
-      </c>
-      <c r="X409" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y409" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB409" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH409" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM409" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR409" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS409" s="2">
-        <v>0</v>
-      </c>
+      <c r="A409" s="1"/>
+      <c r="B409" s="2"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="3"/>
+      <c r="G409" s="2"/>
+      <c r="H409" s="2"/>
+      <c r="I409" s="2"/>
+      <c r="J409" s="2"/>
+      <c r="K409" s="2"/>
+      <c r="L409" s="2"/>
+      <c r="M409" s="3"/>
+      <c r="N409" s="2"/>
+      <c r="O409" s="2"/>
+      <c r="P409" s="2"/>
+      <c r="Q409" s="2"/>
+      <c r="R409" s="2"/>
+      <c r="S409" s="2"/>
+      <c r="T409" s="2"/>
+      <c r="U409" s="2"/>
+      <c r="V409" s="3"/>
+      <c r="W409" s="2"/>
+      <c r="X409" s="2"/>
+      <c r="Y409" s="2"/>
+      <c r="Z409" s="2"/>
+      <c r="AA409" s="2"/>
+      <c r="AB409" s="3"/>
+      <c r="AC409" s="2"/>
+      <c r="AD409" s="2"/>
+      <c r="AE409" s="2"/>
+      <c r="AF409" s="2"/>
+      <c r="AG409" s="2"/>
+      <c r="AH409" s="3"/>
+      <c r="AI409" s="2"/>
+      <c r="AJ409" s="2"/>
+      <c r="AK409" s="2"/>
+      <c r="AL409" s="2"/>
+      <c r="AM409" s="3"/>
+      <c r="AN409" s="2"/>
+      <c r="AO409" s="2"/>
+      <c r="AP409" s="2"/>
+      <c r="AQ409" s="2"/>
+      <c r="AR409" s="2"/>
+      <c r="AS409" s="2"/>
     </row>
     <row r="410" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A410" s="1" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B410" s="4">
-        <v>100001225</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F410" s="3">
-        <v>2</v>
-      </c>
-      <c r="G410" s="2">
-        <v>0</v>
-      </c>
-      <c r="H410" s="2">
-        <v>0</v>
-      </c>
-      <c r="I410" s="2">
-        <v>0</v>
-      </c>
-      <c r="J410" s="2">
-        <v>0</v>
-      </c>
-      <c r="K410" s="2">
-        <v>0</v>
-      </c>
-      <c r="L410" s="2">
-        <v>0</v>
-      </c>
-      <c r="M410" s="3">
-        <v>2</v>
-      </c>
-      <c r="N410" s="2">
-        <v>0</v>
-      </c>
-      <c r="O410" s="2">
-        <v>0</v>
-      </c>
-      <c r="P410" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q410" s="2">
-        <v>0</v>
-      </c>
-      <c r="R410" s="2">
-        <v>0</v>
-      </c>
-      <c r="S410" s="2">
-        <v>0</v>
-      </c>
-      <c r="T410" s="2">
-        <v>2</v>
-      </c>
-      <c r="U410" s="2">
-        <v>0</v>
-      </c>
-      <c r="V410" s="3">
-        <v>2</v>
-      </c>
-      <c r="W410" s="2">
-        <v>0</v>
-      </c>
-      <c r="X410" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y410" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB410" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH410" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM410" s="3">
-        <v>2</v>
-      </c>
-      <c r="AN410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR410" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS410" s="2">
-        <v>0</v>
-      </c>
+      <c r="A410" s="1"/>
+      <c r="B410" s="4"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="3"/>
+      <c r="G410" s="2"/>
+      <c r="H410" s="2"/>
+      <c r="I410" s="2"/>
+      <c r="J410" s="2"/>
+      <c r="K410" s="2"/>
+      <c r="L410" s="2"/>
+      <c r="M410" s="3"/>
+      <c r="N410" s="2"/>
+      <c r="O410" s="2"/>
+      <c r="P410" s="2"/>
+      <c r="Q410" s="2"/>
+      <c r="R410" s="2"/>
+      <c r="S410" s="2"/>
+      <c r="T410" s="2"/>
+      <c r="U410" s="2"/>
+      <c r="V410" s="3"/>
+      <c r="W410" s="2"/>
+      <c r="X410" s="2"/>
+      <c r="Y410" s="2"/>
+      <c r="Z410" s="2"/>
+      <c r="AA410" s="2"/>
+      <c r="AB410" s="3"/>
+      <c r="AC410" s="2"/>
+      <c r="AD410" s="2"/>
+      <c r="AE410" s="2"/>
+      <c r="AF410" s="2"/>
+      <c r="AG410" s="2"/>
+      <c r="AH410" s="3"/>
+      <c r="AI410" s="2"/>
+      <c r="AJ410" s="2"/>
+      <c r="AK410" s="2"/>
+      <c r="AL410" s="2"/>
+      <c r="AM410" s="3"/>
+      <c r="AN410" s="2"/>
+      <c r="AO410" s="2"/>
+      <c r="AP410" s="2"/>
+      <c r="AQ410" s="2"/>
+      <c r="AR410" s="2"/>
+      <c r="AS410" s="2"/>
     </row>
     <row r="411" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A411" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B411" s="4">
-        <v>100001250</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E411" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F411" s="3">
-        <v>1</v>
-      </c>
-      <c r="G411" s="2">
-        <v>0</v>
-      </c>
-      <c r="H411" s="2">
-        <v>0</v>
-      </c>
-      <c r="I411" s="2">
-        <v>0</v>
-      </c>
-      <c r="J411" s="2">
-        <v>0</v>
-      </c>
-      <c r="K411" s="2">
-        <v>0</v>
-      </c>
-      <c r="L411" s="2">
-        <v>0</v>
-      </c>
-      <c r="M411" s="3">
-        <v>1</v>
-      </c>
-      <c r="N411" s="2">
-        <v>0</v>
-      </c>
-      <c r="O411" s="2">
-        <v>0</v>
-      </c>
-      <c r="P411" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q411" s="2">
-        <v>0</v>
-      </c>
-      <c r="R411" s="2">
-        <v>0</v>
-      </c>
-      <c r="S411" s="2">
-        <v>0</v>
-      </c>
-      <c r="T411" s="2">
-        <v>1</v>
-      </c>
-      <c r="U411" s="2">
-        <v>0</v>
-      </c>
-      <c r="V411" s="3">
-        <v>1</v>
-      </c>
-      <c r="W411" s="2">
-        <v>0</v>
-      </c>
-      <c r="X411" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y411" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB411" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH411" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM411" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR411" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS411" s="2">
-        <v>0</v>
-      </c>
+      <c r="A411" s="1"/>
+      <c r="B411" s="4"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="2"/>
+      <c r="H411" s="2"/>
+      <c r="I411" s="2"/>
+      <c r="J411" s="2"/>
+      <c r="K411" s="2"/>
+      <c r="L411" s="2"/>
+      <c r="M411" s="3"/>
+      <c r="N411" s="2"/>
+      <c r="O411" s="2"/>
+      <c r="P411" s="2"/>
+      <c r="Q411" s="2"/>
+      <c r="R411" s="2"/>
+      <c r="S411" s="2"/>
+      <c r="T411" s="2"/>
+      <c r="U411" s="2"/>
+      <c r="V411" s="3"/>
+      <c r="W411" s="2"/>
+      <c r="X411" s="2"/>
+      <c r="Y411" s="2"/>
+      <c r="Z411" s="2"/>
+      <c r="AA411" s="2"/>
+      <c r="AB411" s="3"/>
+      <c r="AC411" s="2"/>
+      <c r="AD411" s="2"/>
+      <c r="AE411" s="2"/>
+      <c r="AF411" s="2"/>
+      <c r="AG411" s="2"/>
+      <c r="AH411" s="3"/>
+      <c r="AI411" s="2"/>
+      <c r="AJ411" s="2"/>
+      <c r="AK411" s="2"/>
+      <c r="AL411" s="2"/>
+      <c r="AM411" s="3"/>
+      <c r="AN411" s="2"/>
+      <c r="AO411" s="2"/>
+      <c r="AP411" s="2"/>
+      <c r="AQ411" s="2"/>
+      <c r="AR411" s="2"/>
+      <c r="AS411" s="2"/>
     </row>
     <row r="412" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A412" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B412" s="4">
-        <v>100001275</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E412" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F412" s="3">
-        <v>2</v>
-      </c>
-      <c r="G412" s="2">
-        <v>0</v>
-      </c>
-      <c r="H412" s="2">
-        <v>0</v>
-      </c>
-      <c r="I412" s="2">
-        <v>0</v>
-      </c>
-      <c r="J412" s="2">
-        <v>0</v>
-      </c>
-      <c r="K412" s="2">
-        <v>0</v>
-      </c>
-      <c r="L412" s="2">
-        <v>0</v>
-      </c>
-      <c r="M412" s="3">
-        <v>2</v>
-      </c>
-      <c r="N412" s="2">
-        <v>0</v>
-      </c>
-      <c r="O412" s="2">
-        <v>0</v>
-      </c>
-      <c r="P412" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q412" s="2">
-        <v>0</v>
-      </c>
-      <c r="R412" s="2">
-        <v>0</v>
-      </c>
-      <c r="S412" s="2">
-        <v>0</v>
-      </c>
-      <c r="T412" s="2">
-        <v>2</v>
-      </c>
-      <c r="U412" s="2">
-        <v>0</v>
-      </c>
-      <c r="V412" s="3">
-        <v>2</v>
-      </c>
-      <c r="W412" s="2">
-        <v>0</v>
-      </c>
-      <c r="X412" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y412" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB412" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH412" s="3">
-        <v>2</v>
-      </c>
-      <c r="AI412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM412" s="3">
-        <v>2</v>
-      </c>
-      <c r="AN412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR412" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS412" s="2">
-        <v>0</v>
-      </c>
+      <c r="A412" s="1"/>
+      <c r="B412" s="4"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="3"/>
+      <c r="G412" s="2"/>
+      <c r="H412" s="2"/>
+      <c r="I412" s="2"/>
+      <c r="J412" s="2"/>
+      <c r="K412" s="2"/>
+      <c r="L412" s="2"/>
+      <c r="M412" s="3"/>
+      <c r="N412" s="2"/>
+      <c r="O412" s="2"/>
+      <c r="P412" s="2"/>
+      <c r="Q412" s="2"/>
+      <c r="R412" s="2"/>
+      <c r="S412" s="2"/>
+      <c r="T412" s="2"/>
+      <c r="U412" s="2"/>
+      <c r="V412" s="3"/>
+      <c r="W412" s="2"/>
+      <c r="X412" s="2"/>
+      <c r="Y412" s="2"/>
+      <c r="Z412" s="2"/>
+      <c r="AA412" s="2"/>
+      <c r="AB412" s="3"/>
+      <c r="AC412" s="2"/>
+      <c r="AD412" s="2"/>
+      <c r="AE412" s="2"/>
+      <c r="AF412" s="2"/>
+      <c r="AG412" s="2"/>
+      <c r="AH412" s="3"/>
+      <c r="AI412" s="2"/>
+      <c r="AJ412" s="2"/>
+      <c r="AK412" s="2"/>
+      <c r="AL412" s="2"/>
+      <c r="AM412" s="3"/>
+      <c r="AN412" s="2"/>
+      <c r="AO412" s="2"/>
+      <c r="AP412" s="2"/>
+      <c r="AQ412" s="2"/>
+      <c r="AR412" s="2"/>
+      <c r="AS412" s="2"/>
     </row>
     <row r="413" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A413" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E413" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F413" s="3">
-        <v>6</v>
-      </c>
-      <c r="G413" s="2">
-        <v>0</v>
-      </c>
-      <c r="H413" s="2">
-        <v>0</v>
-      </c>
-      <c r="I413" s="2">
-        <v>0</v>
-      </c>
-      <c r="J413" s="2">
-        <v>0</v>
-      </c>
-      <c r="K413" s="2">
-        <v>0</v>
-      </c>
-      <c r="L413" s="2">
-        <v>0</v>
-      </c>
-      <c r="M413" s="3">
-        <v>6</v>
-      </c>
-      <c r="N413" s="2">
-        <v>0</v>
-      </c>
-      <c r="O413" s="2">
-        <v>0</v>
-      </c>
-      <c r="P413" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q413" s="2">
-        <v>0</v>
-      </c>
-      <c r="R413" s="2">
-        <v>0</v>
-      </c>
-      <c r="S413" s="2">
-        <v>0</v>
-      </c>
-      <c r="T413" s="2">
-        <v>6</v>
-      </c>
-      <c r="U413" s="2">
-        <v>0</v>
-      </c>
-      <c r="V413" s="3">
-        <v>6</v>
-      </c>
-      <c r="W413" s="2">
-        <v>0</v>
-      </c>
-      <c r="X413" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y413" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB413" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH413" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM413" s="3">
-        <v>6</v>
-      </c>
-      <c r="AN413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR413" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS413" s="2">
-        <v>0</v>
-      </c>
+      <c r="A413" s="1"/>
+      <c r="B413" s="2"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="3"/>
+      <c r="G413" s="2"/>
+      <c r="H413" s="2"/>
+      <c r="I413" s="2"/>
+      <c r="J413" s="2"/>
+      <c r="K413" s="2"/>
+      <c r="L413" s="2"/>
+      <c r="M413" s="3"/>
+      <c r="N413" s="2"/>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
+      <c r="Q413" s="2"/>
+      <c r="R413" s="2"/>
+      <c r="S413" s="2"/>
+      <c r="T413" s="2"/>
+      <c r="U413" s="2"/>
+      <c r="V413" s="3"/>
+      <c r="W413" s="2"/>
+      <c r="X413" s="2"/>
+      <c r="Y413" s="2"/>
+      <c r="Z413" s="2"/>
+      <c r="AA413" s="2"/>
+      <c r="AB413" s="3"/>
+      <c r="AC413" s="2"/>
+      <c r="AD413" s="2"/>
+      <c r="AE413" s="2"/>
+      <c r="AF413" s="2"/>
+      <c r="AG413" s="2"/>
+      <c r="AH413" s="3"/>
+      <c r="AI413" s="2"/>
+      <c r="AJ413" s="2"/>
+      <c r="AK413" s="2"/>
+      <c r="AL413" s="2"/>
+      <c r="AM413" s="3"/>
+      <c r="AN413" s="2"/>
+      <c r="AO413" s="2"/>
+      <c r="AP413" s="2"/>
+      <c r="AQ413" s="2"/>
+      <c r="AR413" s="2"/>
+      <c r="AS413" s="2"/>
     </row>
     <row r="414" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A414" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B414" s="4">
-        <v>7318</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="E414" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F414" s="3">
-        <v>0</v>
-      </c>
-      <c r="G414" s="2">
-        <v>0</v>
-      </c>
-      <c r="H414" s="2">
-        <v>0</v>
-      </c>
-      <c r="I414" s="2">
-        <v>0</v>
-      </c>
-      <c r="J414" s="2">
-        <v>0</v>
-      </c>
-      <c r="K414" s="2">
-        <v>0</v>
-      </c>
-      <c r="L414" s="2">
-        <v>0</v>
-      </c>
-      <c r="M414" s="3">
-        <v>0</v>
-      </c>
-      <c r="N414" s="2">
-        <v>0</v>
-      </c>
-      <c r="O414" s="2">
-        <v>0</v>
-      </c>
-      <c r="P414" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q414" s="2">
-        <v>0</v>
-      </c>
-      <c r="R414" s="2">
-        <v>0</v>
-      </c>
-      <c r="S414" s="2">
-        <v>0</v>
-      </c>
-      <c r="T414" s="2">
-        <v>0</v>
-      </c>
-      <c r="U414" s="2">
-        <v>0</v>
-      </c>
-      <c r="V414" s="3">
-        <v>0</v>
-      </c>
-      <c r="W414" s="2">
-        <v>0</v>
-      </c>
-      <c r="X414" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y414" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB414" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH414" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM414" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR414" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS414" s="2">
-        <v>0</v>
-      </c>
+      <c r="A414" s="1"/>
+      <c r="B414" s="4"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="3"/>
+      <c r="G414" s="2"/>
+      <c r="H414" s="2"/>
+      <c r="I414" s="2"/>
+      <c r="J414" s="2"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="3"/>
+      <c r="N414" s="2"/>
+      <c r="O414" s="2"/>
+      <c r="P414" s="2"/>
+      <c r="Q414" s="2"/>
+      <c r="R414" s="2"/>
+      <c r="S414" s="2"/>
+      <c r="T414" s="2"/>
+      <c r="U414" s="2"/>
+      <c r="V414" s="3"/>
+      <c r="W414" s="2"/>
+      <c r="X414" s="2"/>
+      <c r="Y414" s="2"/>
+      <c r="Z414" s="2"/>
+      <c r="AA414" s="2"/>
+      <c r="AB414" s="3"/>
+      <c r="AC414" s="2"/>
+      <c r="AD414" s="2"/>
+      <c r="AE414" s="2"/>
+      <c r="AF414" s="2"/>
+      <c r="AG414" s="2"/>
+      <c r="AH414" s="3"/>
+      <c r="AI414" s="2"/>
+      <c r="AJ414" s="2"/>
+      <c r="AK414" s="2"/>
+      <c r="AL414" s="2"/>
+      <c r="AM414" s="3"/>
+      <c r="AN414" s="2"/>
+      <c r="AO414" s="2"/>
+      <c r="AP414" s="2"/>
+      <c r="AQ414" s="2"/>
+      <c r="AR414" s="2"/>
+      <c r="AS414" s="2"/>
     </row>
     <row r="415" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A415" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C415" s="1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E415" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F415" s="3">
-        <v>870</v>
-      </c>
-      <c r="G415" s="2">
-        <v>0</v>
-      </c>
-      <c r="H415" s="2">
-        <v>0</v>
-      </c>
-      <c r="I415" s="2">
-        <v>0</v>
-      </c>
-      <c r="J415" s="2">
-        <v>0</v>
-      </c>
-      <c r="K415" s="2">
-        <v>0</v>
-      </c>
-      <c r="L415" s="2">
-        <v>0</v>
-      </c>
-      <c r="M415" s="3">
-        <v>870</v>
-      </c>
-      <c r="N415" s="2">
-        <v>0</v>
-      </c>
-      <c r="O415" s="2">
-        <v>0</v>
-      </c>
-      <c r="P415" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q415" s="2">
-        <v>0</v>
-      </c>
-      <c r="R415" s="2">
-        <v>0</v>
-      </c>
-      <c r="S415" s="2">
-        <v>0</v>
-      </c>
-      <c r="T415" s="2">
-        <v>870</v>
-      </c>
-      <c r="U415" s="2">
-        <v>0</v>
-      </c>
-      <c r="V415" s="3">
-        <v>870</v>
-      </c>
-      <c r="W415" s="2">
-        <v>0</v>
-      </c>
-      <c r="X415" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y415" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB415" s="3">
-        <v>870</v>
-      </c>
-      <c r="AC415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH415" s="3">
-        <v>870</v>
-      </c>
-      <c r="AI415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM415" s="3">
-        <v>870</v>
-      </c>
-      <c r="AN415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR415" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS415" s="2">
-        <v>0</v>
-      </c>
+      <c r="A415" s="1"/>
+      <c r="B415" s="2"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="3"/>
+      <c r="G415" s="2"/>
+      <c r="H415" s="2"/>
+      <c r="I415" s="2"/>
+      <c r="J415" s="2"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="3"/>
+      <c r="N415" s="2"/>
+      <c r="O415" s="2"/>
+      <c r="P415" s="2"/>
+      <c r="Q415" s="2"/>
+      <c r="R415" s="2"/>
+      <c r="S415" s="2"/>
+      <c r="T415" s="2"/>
+      <c r="U415" s="2"/>
+      <c r="V415" s="3"/>
+      <c r="W415" s="2"/>
+      <c r="X415" s="2"/>
+      <c r="Y415" s="2"/>
+      <c r="Z415" s="2"/>
+      <c r="AA415" s="2"/>
+      <c r="AB415" s="3"/>
+      <c r="AC415" s="2"/>
+      <c r="AD415" s="2"/>
+      <c r="AE415" s="2"/>
+      <c r="AF415" s="2"/>
+      <c r="AG415" s="2"/>
+      <c r="AH415" s="3"/>
+      <c r="AI415" s="2"/>
+      <c r="AJ415" s="2"/>
+      <c r="AK415" s="2"/>
+      <c r="AL415" s="2"/>
+      <c r="AM415" s="3"/>
+      <c r="AN415" s="2"/>
+      <c r="AO415" s="2"/>
+      <c r="AP415" s="2"/>
+      <c r="AQ415" s="2"/>
+      <c r="AR415" s="2"/>
+      <c r="AS415" s="2"/>
     </row>
     <row r="416" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A416" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E416" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F416" s="3">
-        <v>0</v>
-      </c>
-      <c r="G416" s="2">
-        <v>0</v>
-      </c>
-      <c r="H416" s="2">
-        <v>0</v>
-      </c>
-      <c r="I416" s="2">
-        <v>0</v>
-      </c>
-      <c r="J416" s="2">
-        <v>0</v>
-      </c>
-      <c r="K416" s="2">
-        <v>0</v>
-      </c>
-      <c r="L416" s="2">
-        <v>0</v>
-      </c>
-      <c r="M416" s="3">
-        <v>0</v>
-      </c>
-      <c r="N416" s="2">
-        <v>0</v>
-      </c>
-      <c r="O416" s="2">
-        <v>0</v>
-      </c>
-      <c r="P416" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q416" s="2">
-        <v>0</v>
-      </c>
-      <c r="R416" s="2">
-        <v>0</v>
-      </c>
-      <c r="S416" s="2">
-        <v>0</v>
-      </c>
-      <c r="T416" s="2">
-        <v>0</v>
-      </c>
-      <c r="U416" s="2">
-        <v>0</v>
-      </c>
-      <c r="V416" s="3">
-        <v>0</v>
-      </c>
-      <c r="W416" s="2">
-        <v>0</v>
-      </c>
-      <c r="X416" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y416" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB416" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH416" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM416" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR416" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS416" s="2">
-        <v>0</v>
-      </c>
+      <c r="A416" s="1"/>
+      <c r="B416" s="2"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="3"/>
+      <c r="G416" s="2"/>
+      <c r="H416" s="2"/>
+      <c r="I416" s="2"/>
+      <c r="J416" s="2"/>
+      <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="3"/>
+      <c r="N416" s="2"/>
+      <c r="O416" s="2"/>
+      <c r="P416" s="2"/>
+      <c r="Q416" s="2"/>
+      <c r="R416" s="2"/>
+      <c r="S416" s="2"/>
+      <c r="T416" s="2"/>
+      <c r="U416" s="2"/>
+      <c r="V416" s="3"/>
+      <c r="W416" s="2"/>
+      <c r="X416" s="2"/>
+      <c r="Y416" s="2"/>
+      <c r="Z416" s="2"/>
+      <c r="AA416" s="2"/>
+      <c r="AB416" s="3"/>
+      <c r="AC416" s="2"/>
+      <c r="AD416" s="2"/>
+      <c r="AE416" s="2"/>
+      <c r="AF416" s="2"/>
+      <c r="AG416" s="2"/>
+      <c r="AH416" s="3"/>
+      <c r="AI416" s="2"/>
+      <c r="AJ416" s="2"/>
+      <c r="AK416" s="2"/>
+      <c r="AL416" s="2"/>
+      <c r="AM416" s="3"/>
+      <c r="AN416" s="2"/>
+      <c r="AO416" s="2"/>
+      <c r="AP416" s="2"/>
+      <c r="AQ416" s="2"/>
+      <c r="AR416" s="2"/>
+      <c r="AS416" s="2"/>
     </row>
     <row r="417" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A417" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E417" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F417" s="3">
-        <v>30</v>
-      </c>
-      <c r="G417" s="2">
-        <v>0</v>
-      </c>
-      <c r="H417" s="2">
-        <v>0</v>
-      </c>
-      <c r="I417" s="2">
-        <v>0</v>
-      </c>
-      <c r="J417" s="2">
-        <v>0</v>
-      </c>
-      <c r="K417" s="2">
-        <v>0</v>
-      </c>
-      <c r="L417" s="2">
-        <v>0</v>
-      </c>
-      <c r="M417" s="3">
-        <v>30</v>
-      </c>
-      <c r="N417" s="2">
-        <v>0</v>
-      </c>
-      <c r="O417" s="2">
-        <v>0</v>
-      </c>
-      <c r="P417" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q417" s="2">
-        <v>0</v>
-      </c>
-      <c r="R417" s="2">
-        <v>0</v>
-      </c>
-      <c r="S417" s="2">
-        <v>0</v>
-      </c>
-      <c r="T417" s="2">
-        <v>30</v>
-      </c>
-      <c r="U417" s="2">
-        <v>0</v>
-      </c>
-      <c r="V417" s="3">
-        <v>30</v>
-      </c>
-      <c r="W417" s="2">
-        <v>0</v>
-      </c>
-      <c r="X417" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y417" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB417" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH417" s="3">
-        <v>30</v>
-      </c>
-      <c r="AI417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM417" s="3">
-        <v>30</v>
-      </c>
-      <c r="AN417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR417" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS417" s="2">
-        <v>0</v>
-      </c>
+      <c r="A417" s="1"/>
+      <c r="B417" s="2"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="2"/>
+      <c r="H417" s="2"/>
+      <c r="I417" s="2"/>
+      <c r="J417" s="2"/>
+      <c r="K417" s="2"/>
+      <c r="L417" s="2"/>
+      <c r="M417" s="3"/>
+      <c r="N417" s="2"/>
+      <c r="O417" s="2"/>
+      <c r="P417" s="2"/>
+      <c r="Q417" s="2"/>
+      <c r="R417" s="2"/>
+      <c r="S417" s="2"/>
+      <c r="T417" s="2"/>
+      <c r="U417" s="2"/>
+      <c r="V417" s="3"/>
+      <c r="W417" s="2"/>
+      <c r="X417" s="2"/>
+      <c r="Y417" s="2"/>
+      <c r="Z417" s="2"/>
+      <c r="AA417" s="2"/>
+      <c r="AB417" s="3"/>
+      <c r="AC417" s="2"/>
+      <c r="AD417" s="2"/>
+      <c r="AE417" s="2"/>
+      <c r="AF417" s="2"/>
+      <c r="AG417" s="2"/>
+      <c r="AH417" s="3"/>
+      <c r="AI417" s="2"/>
+      <c r="AJ417" s="2"/>
+      <c r="AK417" s="2"/>
+      <c r="AL417" s="2"/>
+      <c r="AM417" s="3"/>
+      <c r="AN417" s="2"/>
+      <c r="AO417" s="2"/>
+      <c r="AP417" s="2"/>
+      <c r="AQ417" s="2"/>
+      <c r="AR417" s="2"/>
+      <c r="AS417" s="2"/>
     </row>
     <row r="418" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A418" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E418" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F418" s="3">
-        <v>175</v>
-      </c>
-      <c r="G418" s="2">
-        <v>0</v>
-      </c>
-      <c r="H418" s="2">
-        <v>0</v>
-      </c>
-      <c r="I418" s="2">
-        <v>0</v>
-      </c>
-      <c r="J418" s="2">
-        <v>0</v>
-      </c>
-      <c r="K418" s="2">
-        <v>0</v>
-      </c>
-      <c r="L418" s="2">
-        <v>0</v>
-      </c>
-      <c r="M418" s="3">
-        <v>175</v>
-      </c>
-      <c r="N418" s="2">
-        <v>0</v>
-      </c>
-      <c r="O418" s="2">
-        <v>0</v>
-      </c>
-      <c r="P418" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q418" s="2">
-        <v>0</v>
-      </c>
-      <c r="R418" s="2">
-        <v>0</v>
-      </c>
-      <c r="S418" s="2">
-        <v>0</v>
-      </c>
-      <c r="T418" s="2">
-        <v>175</v>
-      </c>
-      <c r="U418" s="2">
-        <v>0</v>
-      </c>
-      <c r="V418" s="3">
-        <v>175</v>
-      </c>
-      <c r="W418" s="2">
-        <v>0</v>
-      </c>
-      <c r="X418" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y418" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB418" s="3">
-        <v>175</v>
-      </c>
-      <c r="AC418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH418" s="3">
-        <v>175</v>
-      </c>
-      <c r="AI418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM418" s="3">
-        <v>175</v>
-      </c>
-      <c r="AN418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR418" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS418" s="2">
-        <v>0</v>
-      </c>
+      <c r="A418" s="1"/>
+      <c r="B418" s="2"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="3"/>
+      <c r="G418" s="2"/>
+      <c r="H418" s="2"/>
+      <c r="I418" s="2"/>
+      <c r="J418" s="2"/>
+      <c r="K418" s="2"/>
+      <c r="L418" s="2"/>
+      <c r="M418" s="3"/>
+      <c r="N418" s="2"/>
+      <c r="O418" s="2"/>
+      <c r="P418" s="2"/>
+      <c r="Q418" s="2"/>
+      <c r="R418" s="2"/>
+      <c r="S418" s="2"/>
+      <c r="T418" s="2"/>
+      <c r="U418" s="2"/>
+      <c r="V418" s="3"/>
+      <c r="W418" s="2"/>
+      <c r="X418" s="2"/>
+      <c r="Y418" s="2"/>
+      <c r="Z418" s="2"/>
+      <c r="AA418" s="2"/>
+      <c r="AB418" s="3"/>
+      <c r="AC418" s="2"/>
+      <c r="AD418" s="2"/>
+      <c r="AE418" s="2"/>
+      <c r="AF418" s="2"/>
+      <c r="AG418" s="2"/>
+      <c r="AH418" s="3"/>
+      <c r="AI418" s="2"/>
+      <c r="AJ418" s="2"/>
+      <c r="AK418" s="2"/>
+      <c r="AL418" s="2"/>
+      <c r="AM418" s="3"/>
+      <c r="AN418" s="2"/>
+      <c r="AO418" s="2"/>
+      <c r="AP418" s="2"/>
+      <c r="AQ418" s="2"/>
+      <c r="AR418" s="2"/>
+      <c r="AS418" s="2"/>
     </row>
     <row r="419" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A419" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E419" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="F419" s="3">
-        <v>0</v>
-      </c>
-      <c r="G419" s="2">
-        <v>0</v>
-      </c>
-      <c r="H419" s="2">
-        <v>0</v>
-      </c>
-      <c r="I419" s="2">
-        <v>0</v>
-      </c>
-      <c r="J419" s="2">
-        <v>0</v>
-      </c>
-      <c r="K419" s="2">
-        <v>0</v>
-      </c>
-      <c r="L419" s="2">
-        <v>0</v>
-      </c>
-      <c r="M419" s="3">
-        <v>0</v>
-      </c>
-      <c r="N419" s="2">
-        <v>0</v>
-      </c>
-      <c r="O419" s="2">
-        <v>0</v>
-      </c>
-      <c r="P419" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q419" s="2">
-        <v>0</v>
-      </c>
-      <c r="R419" s="2">
-        <v>0</v>
-      </c>
-      <c r="S419" s="2">
-        <v>0</v>
-      </c>
-      <c r="T419" s="2">
-        <v>0</v>
-      </c>
-      <c r="U419" s="2">
-        <v>0</v>
-      </c>
-      <c r="V419" s="3">
-        <v>0</v>
-      </c>
-      <c r="W419" s="2">
-        <v>0</v>
-      </c>
-      <c r="X419" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y419" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB419" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH419" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM419" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR419" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS419" s="2">
-        <v>0</v>
-      </c>
+      <c r="A419" s="1"/>
+      <c r="B419" s="2"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="3"/>
+      <c r="G419" s="2"/>
+      <c r="H419" s="2"/>
+      <c r="I419" s="2"/>
+      <c r="J419" s="2"/>
+      <c r="K419" s="2"/>
+      <c r="L419" s="2"/>
+      <c r="M419" s="3"/>
+      <c r="N419" s="2"/>
+      <c r="O419" s="2"/>
+      <c r="P419" s="2"/>
+      <c r="Q419" s="2"/>
+      <c r="R419" s="2"/>
+      <c r="S419" s="2"/>
+      <c r="T419" s="2"/>
+      <c r="U419" s="2"/>
+      <c r="V419" s="3"/>
+      <c r="W419" s="2"/>
+      <c r="X419" s="2"/>
+      <c r="Y419" s="2"/>
+      <c r="Z419" s="2"/>
+      <c r="AA419" s="2"/>
+      <c r="AB419" s="3"/>
+      <c r="AC419" s="2"/>
+      <c r="AD419" s="2"/>
+      <c r="AE419" s="2"/>
+      <c r="AF419" s="2"/>
+      <c r="AG419" s="2"/>
+      <c r="AH419" s="3"/>
+      <c r="AI419" s="2"/>
+      <c r="AJ419" s="2"/>
+      <c r="AK419" s="2"/>
+      <c r="AL419" s="2"/>
+      <c r="AM419" s="3"/>
+      <c r="AN419" s="2"/>
+      <c r="AO419" s="2"/>
+      <c r="AP419" s="2"/>
+      <c r="AQ419" s="2"/>
+      <c r="AR419" s="2"/>
+      <c r="AS419" s="2"/>
     </row>
     <row r="420" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A420" s="1" t="s">
-        <v>1213</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E420" s="2" t="s">
-        <v>1198</v>
-      </c>
-      <c r="F420" s="3">
-        <v>0</v>
-      </c>
-      <c r="G420" s="2">
-        <v>0</v>
-      </c>
-      <c r="H420" s="2">
-        <v>0</v>
-      </c>
-      <c r="I420" s="2">
-        <v>0</v>
-      </c>
-      <c r="J420" s="2">
-        <v>0</v>
-      </c>
-      <c r="K420" s="2">
-        <v>0</v>
-      </c>
-      <c r="L420" s="2">
-        <v>0</v>
-      </c>
-      <c r="M420" s="3">
-        <v>0</v>
-      </c>
-      <c r="N420" s="2">
-        <v>0</v>
-      </c>
-      <c r="O420" s="2">
-        <v>0</v>
-      </c>
-      <c r="P420" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q420" s="2">
-        <v>0</v>
-      </c>
-      <c r="R420" s="2">
-        <v>0</v>
-      </c>
-      <c r="S420" s="2">
-        <v>0</v>
-      </c>
-      <c r="T420" s="2">
-        <v>0</v>
-      </c>
-      <c r="U420" s="2">
-        <v>0</v>
-      </c>
-      <c r="V420" s="3">
-        <v>0</v>
-      </c>
-      <c r="W420" s="2">
-        <v>0</v>
-      </c>
-      <c r="X420" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y420" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB420" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH420" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM420" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR420" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS420" s="2">
-        <v>0</v>
-      </c>
+      <c r="A420" s="1"/>
+      <c r="B420" s="2"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="3"/>
+      <c r="G420" s="2"/>
+      <c r="H420" s="2"/>
+      <c r="I420" s="2"/>
+      <c r="J420" s="2"/>
+      <c r="K420" s="2"/>
+      <c r="L420" s="2"/>
+      <c r="M420" s="3"/>
+      <c r="N420" s="2"/>
+      <c r="O420" s="2"/>
+      <c r="P420" s="2"/>
+      <c r="Q420" s="2"/>
+      <c r="R420" s="2"/>
+      <c r="S420" s="2"/>
+      <c r="T420" s="2"/>
+      <c r="U420" s="2"/>
+      <c r="V420" s="3"/>
+      <c r="W420" s="2"/>
+      <c r="X420" s="2"/>
+      <c r="Y420" s="2"/>
+      <c r="Z420" s="2"/>
+      <c r="AA420" s="2"/>
+      <c r="AB420" s="3"/>
+      <c r="AC420" s="2"/>
+      <c r="AD420" s="2"/>
+      <c r="AE420" s="2"/>
+      <c r="AF420" s="2"/>
+      <c r="AG420" s="2"/>
+      <c r="AH420" s="3"/>
+      <c r="AI420" s="2"/>
+      <c r="AJ420" s="2"/>
+      <c r="AK420" s="2"/>
+      <c r="AL420" s="2"/>
+      <c r="AM420" s="3"/>
+      <c r="AN420" s="2"/>
+      <c r="AO420" s="2"/>
+      <c r="AP420" s="2"/>
+      <c r="AQ420" s="2"/>
+      <c r="AR420" s="2"/>
+      <c r="AS420" s="2"/>
     </row>
     <row r="421" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A421" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E421" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F421" s="3">
-        <v>83</v>
-      </c>
-      <c r="G421" s="2">
-        <v>0</v>
-      </c>
-      <c r="H421" s="2">
-        <v>0</v>
-      </c>
-      <c r="I421" s="2">
-        <v>0</v>
-      </c>
-      <c r="J421" s="2">
-        <v>0</v>
-      </c>
-      <c r="K421" s="2">
-        <v>0</v>
-      </c>
-      <c r="L421" s="2">
-        <v>0</v>
-      </c>
-      <c r="M421" s="3">
-        <v>83</v>
-      </c>
-      <c r="N421" s="2">
-        <v>0</v>
-      </c>
-      <c r="O421" s="2">
-        <v>0</v>
-      </c>
-      <c r="P421" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q421" s="2">
-        <v>0</v>
-      </c>
-      <c r="R421" s="2">
-        <v>0</v>
-      </c>
-      <c r="S421" s="2">
-        <v>0</v>
-      </c>
-      <c r="T421" s="2">
-        <v>83</v>
-      </c>
-      <c r="U421" s="2">
-        <v>0</v>
-      </c>
-      <c r="V421" s="3">
-        <v>83</v>
-      </c>
-      <c r="W421" s="2">
-        <v>0</v>
-      </c>
-      <c r="X421" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y421" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB421" s="3">
-        <v>83</v>
-      </c>
-      <c r="AC421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH421" s="3">
-        <v>83</v>
-      </c>
-      <c r="AI421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM421" s="3">
-        <v>83</v>
-      </c>
-      <c r="AN421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR421" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS421" s="2">
-        <v>0</v>
-      </c>
+      <c r="A421" s="1"/>
+      <c r="B421" s="2"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="3"/>
+      <c r="G421" s="2"/>
+      <c r="H421" s="2"/>
+      <c r="I421" s="2"/>
+      <c r="J421" s="2"/>
+      <c r="K421" s="2"/>
+      <c r="L421" s="2"/>
+      <c r="M421" s="3"/>
+      <c r="N421" s="2"/>
+      <c r="O421" s="2"/>
+      <c r="P421" s="2"/>
+      <c r="Q421" s="2"/>
+      <c r="R421" s="2"/>
+      <c r="S421" s="2"/>
+      <c r="T421" s="2"/>
+      <c r="U421" s="2"/>
+      <c r="V421" s="3"/>
+      <c r="W421" s="2"/>
+      <c r="X421" s="2"/>
+      <c r="Y421" s="2"/>
+      <c r="Z421" s="2"/>
+      <c r="AA421" s="2"/>
+      <c r="AB421" s="3"/>
+      <c r="AC421" s="2"/>
+      <c r="AD421" s="2"/>
+      <c r="AE421" s="2"/>
+      <c r="AF421" s="2"/>
+      <c r="AG421" s="2"/>
+      <c r="AH421" s="3"/>
+      <c r="AI421" s="2"/>
+      <c r="AJ421" s="2"/>
+      <c r="AK421" s="2"/>
+      <c r="AL421" s="2"/>
+      <c r="AM421" s="3"/>
+      <c r="AN421" s="2"/>
+      <c r="AO421" s="2"/>
+      <c r="AP421" s="2"/>
+      <c r="AQ421" s="2"/>
+      <c r="AR421" s="2"/>
+      <c r="AS421" s="2"/>
     </row>
     <row r="422" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A422" s="1" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B422" s="4">
-        <v>549010</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E422" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F422" s="3">
-        <v>0</v>
-      </c>
-      <c r="G422" s="2">
-        <v>0</v>
-      </c>
-      <c r="H422" s="2">
-        <v>0</v>
-      </c>
-      <c r="I422" s="2">
-        <v>0</v>
-      </c>
-      <c r="J422" s="2">
-        <v>0</v>
-      </c>
-      <c r="K422" s="2">
-        <v>0</v>
-      </c>
-      <c r="L422" s="2">
-        <v>0</v>
-      </c>
-      <c r="M422" s="3">
-        <v>0</v>
-      </c>
-      <c r="N422" s="2">
-        <v>0</v>
-      </c>
-      <c r="O422" s="2">
-        <v>0</v>
-      </c>
-      <c r="P422" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q422" s="2">
-        <v>0</v>
-      </c>
-      <c r="R422" s="2">
-        <v>0</v>
-      </c>
-      <c r="S422" s="2">
-        <v>0</v>
-      </c>
-      <c r="T422" s="2">
-        <v>0</v>
-      </c>
-      <c r="U422" s="2">
-        <v>0</v>
-      </c>
-      <c r="V422" s="3">
-        <v>0</v>
-      </c>
-      <c r="W422" s="2">
-        <v>0</v>
-      </c>
-      <c r="X422" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y422" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB422" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH422" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM422" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR422" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS422" s="2">
-        <v>0</v>
-      </c>
+      <c r="A422" s="1"/>
+      <c r="B422" s="4"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="3"/>
+      <c r="G422" s="2"/>
+      <c r="H422" s="2"/>
+      <c r="I422" s="2"/>
+      <c r="J422" s="2"/>
+      <c r="K422" s="2"/>
+      <c r="L422" s="2"/>
+      <c r="M422" s="3"/>
+      <c r="N422" s="2"/>
+      <c r="O422" s="2"/>
+      <c r="P422" s="2"/>
+      <c r="Q422" s="2"/>
+      <c r="R422" s="2"/>
+      <c r="S422" s="2"/>
+      <c r="T422" s="2"/>
+      <c r="U422" s="2"/>
+      <c r="V422" s="3"/>
+      <c r="W422" s="2"/>
+      <c r="X422" s="2"/>
+      <c r="Y422" s="2"/>
+      <c r="Z422" s="2"/>
+      <c r="AA422" s="2"/>
+      <c r="AB422" s="3"/>
+      <c r="AC422" s="2"/>
+      <c r="AD422" s="2"/>
+      <c r="AE422" s="2"/>
+      <c r="AF422" s="2"/>
+      <c r="AG422" s="2"/>
+      <c r="AH422" s="3"/>
+      <c r="AI422" s="2"/>
+      <c r="AJ422" s="2"/>
+      <c r="AK422" s="2"/>
+      <c r="AL422" s="2"/>
+      <c r="AM422" s="3"/>
+      <c r="AN422" s="2"/>
+      <c r="AO422" s="2"/>
+      <c r="AP422" s="2"/>
+      <c r="AQ422" s="2"/>
+      <c r="AR422" s="2"/>
+      <c r="AS422" s="2"/>
     </row>
     <row r="423" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A423" s="1" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="E423" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F423" s="3">
-        <v>0</v>
-      </c>
-      <c r="G423" s="2">
-        <v>0</v>
-      </c>
-      <c r="H423" s="2">
-        <v>0</v>
-      </c>
-      <c r="I423" s="2">
-        <v>0</v>
-      </c>
-      <c r="J423" s="2">
-        <v>0</v>
-      </c>
-      <c r="K423" s="2">
-        <v>0</v>
-      </c>
-      <c r="L423" s="2">
-        <v>0</v>
-      </c>
-      <c r="M423" s="3">
-        <v>0</v>
-      </c>
-      <c r="N423" s="2">
-        <v>0</v>
-      </c>
-      <c r="O423" s="2">
-        <v>0</v>
-      </c>
-      <c r="P423" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q423" s="2">
-        <v>0</v>
-      </c>
-      <c r="R423" s="2">
-        <v>0</v>
-      </c>
-      <c r="S423" s="2">
-        <v>0</v>
-      </c>
-      <c r="T423" s="2">
-        <v>0</v>
-      </c>
-      <c r="U423" s="2">
-        <v>0</v>
-      </c>
-      <c r="V423" s="3">
-        <v>0</v>
-      </c>
-      <c r="W423" s="2">
-        <v>0</v>
-      </c>
-      <c r="X423" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y423" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB423" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH423" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM423" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR423" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS423" s="2">
-        <v>0</v>
-      </c>
+      <c r="A423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="2"/>
+      <c r="H423" s="2"/>
+      <c r="I423" s="2"/>
+      <c r="J423" s="2"/>
+      <c r="K423" s="2"/>
+      <c r="L423" s="2"/>
+      <c r="M423" s="3"/>
+      <c r="N423" s="2"/>
+      <c r="O423" s="2"/>
+      <c r="P423" s="2"/>
+      <c r="Q423" s="2"/>
+      <c r="R423" s="2"/>
+      <c r="S423" s="2"/>
+      <c r="T423" s="2"/>
+      <c r="U423" s="2"/>
+      <c r="V423" s="3"/>
+      <c r="W423" s="2"/>
+      <c r="X423" s="2"/>
+      <c r="Y423" s="2"/>
+      <c r="Z423" s="2"/>
+      <c r="AA423" s="2"/>
+      <c r="AB423" s="3"/>
+      <c r="AC423" s="2"/>
+      <c r="AD423" s="2"/>
+      <c r="AE423" s="2"/>
+      <c r="AF423" s="2"/>
+      <c r="AG423" s="2"/>
+      <c r="AH423" s="3"/>
+      <c r="AI423" s="2"/>
+      <c r="AJ423" s="2"/>
+      <c r="AK423" s="2"/>
+      <c r="AL423" s="2"/>
+      <c r="AM423" s="3"/>
+      <c r="AN423" s="2"/>
+      <c r="AO423" s="2"/>
+      <c r="AP423" s="2"/>
+      <c r="AQ423" s="2"/>
+      <c r="AR423" s="2"/>
+      <c r="AS423" s="2"/>
     </row>
     <row r="424" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A424" s="1" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B424" s="4">
-        <v>26011</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F424" s="3">
-        <v>1</v>
-      </c>
-      <c r="G424" s="2">
-        <v>0</v>
-      </c>
-      <c r="H424" s="2">
-        <v>0</v>
-      </c>
-      <c r="I424" s="2">
-        <v>0</v>
-      </c>
-      <c r="J424" s="2">
-        <v>0</v>
-      </c>
-      <c r="K424" s="2">
-        <v>0</v>
-      </c>
-      <c r="L424" s="2">
-        <v>0</v>
-      </c>
-      <c r="M424" s="3">
-        <v>1</v>
-      </c>
-      <c r="N424" s="2">
-        <v>0</v>
-      </c>
-      <c r="O424" s="2">
-        <v>0</v>
-      </c>
-      <c r="P424" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q424" s="2">
-        <v>0</v>
-      </c>
-      <c r="R424" s="2">
-        <v>0</v>
-      </c>
-      <c r="S424" s="2">
-        <v>0</v>
-      </c>
-      <c r="T424" s="2">
-        <v>1</v>
-      </c>
-      <c r="U424" s="2">
-        <v>0</v>
-      </c>
-      <c r="V424" s="3">
-        <v>1</v>
-      </c>
-      <c r="W424" s="2">
-        <v>0</v>
-      </c>
-      <c r="X424" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y424" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB424" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH424" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM424" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR424" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS424" s="2">
-        <v>0</v>
-      </c>
+      <c r="A424" s="1"/>
+      <c r="B424" s="4"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="2"/>
+      <c r="H424" s="2"/>
+      <c r="I424" s="2"/>
+      <c r="J424" s="2"/>
+      <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="3"/>
+      <c r="N424" s="2"/>
+      <c r="O424" s="2"/>
+      <c r="P424" s="2"/>
+      <c r="Q424" s="2"/>
+      <c r="R424" s="2"/>
+      <c r="S424" s="2"/>
+      <c r="T424" s="2"/>
+      <c r="U424" s="2"/>
+      <c r="V424" s="3"/>
+      <c r="W424" s="2"/>
+      <c r="X424" s="2"/>
+      <c r="Y424" s="2"/>
+      <c r="Z424" s="2"/>
+      <c r="AA424" s="2"/>
+      <c r="AB424" s="3"/>
+      <c r="AC424" s="2"/>
+      <c r="AD424" s="2"/>
+      <c r="AE424" s="2"/>
+      <c r="AF424" s="2"/>
+      <c r="AG424" s="2"/>
+      <c r="AH424" s="3"/>
+      <c r="AI424" s="2"/>
+      <c r="AJ424" s="2"/>
+      <c r="AK424" s="2"/>
+      <c r="AL424" s="2"/>
+      <c r="AM424" s="3"/>
+      <c r="AN424" s="2"/>
+      <c r="AO424" s="2"/>
+      <c r="AP424" s="2"/>
+      <c r="AQ424" s="2"/>
+      <c r="AR424" s="2"/>
+      <c r="AS424" s="2"/>
     </row>
     <row r="425" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A425" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F425" s="3">
-        <v>0</v>
-      </c>
-      <c r="G425" s="2">
-        <v>0</v>
-      </c>
-      <c r="H425" s="2">
-        <v>0</v>
-      </c>
-      <c r="I425" s="2">
-        <v>0</v>
-      </c>
-      <c r="J425" s="2">
-        <v>0</v>
-      </c>
-      <c r="K425" s="2">
-        <v>0</v>
-      </c>
-      <c r="L425" s="2">
-        <v>0</v>
-      </c>
-      <c r="M425" s="3">
-        <v>0</v>
-      </c>
-      <c r="N425" s="2">
-        <v>0</v>
-      </c>
-      <c r="O425" s="2">
-        <v>0</v>
-      </c>
-      <c r="P425" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q425" s="2">
-        <v>0</v>
-      </c>
-      <c r="R425" s="2">
-        <v>0</v>
-      </c>
-      <c r="S425" s="2">
-        <v>0</v>
-      </c>
-      <c r="T425" s="2">
-        <v>0</v>
-      </c>
-      <c r="U425" s="2">
-        <v>0</v>
-      </c>
-      <c r="V425" s="3">
-        <v>0</v>
-      </c>
-      <c r="W425" s="2">
-        <v>0</v>
-      </c>
-      <c r="X425" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y425" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB425" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH425" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM425" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR425" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS425" s="2">
-        <v>0</v>
-      </c>
+      <c r="A425" s="1"/>
+      <c r="B425" s="2"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="2"/>
+      <c r="H425" s="2"/>
+      <c r="I425" s="2"/>
+      <c r="J425" s="2"/>
+      <c r="K425" s="2"/>
+      <c r="L425" s="2"/>
+      <c r="M425" s="3"/>
+      <c r="N425" s="2"/>
+      <c r="O425" s="2"/>
+      <c r="P425" s="2"/>
+      <c r="Q425" s="2"/>
+      <c r="R425" s="2"/>
+      <c r="S425" s="2"/>
+      <c r="T425" s="2"/>
+      <c r="U425" s="2"/>
+      <c r="V425" s="3"/>
+      <c r="W425" s="2"/>
+      <c r="X425" s="2"/>
+      <c r="Y425" s="2"/>
+      <c r="Z425" s="2"/>
+      <c r="AA425" s="2"/>
+      <c r="AB425" s="3"/>
+      <c r="AC425" s="2"/>
+      <c r="AD425" s="2"/>
+      <c r="AE425" s="2"/>
+      <c r="AF425" s="2"/>
+      <c r="AG425" s="2"/>
+      <c r="AH425" s="3"/>
+      <c r="AI425" s="2"/>
+      <c r="AJ425" s="2"/>
+      <c r="AK425" s="2"/>
+      <c r="AL425" s="2"/>
+      <c r="AM425" s="3"/>
+      <c r="AN425" s="2"/>
+      <c r="AO425" s="2"/>
+      <c r="AP425" s="2"/>
+      <c r="AQ425" s="2"/>
+      <c r="AR425" s="2"/>
+      <c r="AS425" s="2"/>
     </row>
     <row r="426" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A426" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B426" s="4">
-        <v>26013</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E426" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F426" s="3">
-        <v>0</v>
-      </c>
-      <c r="G426" s="2">
-        <v>0</v>
-      </c>
-      <c r="H426" s="2">
-        <v>0</v>
-      </c>
-      <c r="I426" s="2">
-        <v>0</v>
-      </c>
-      <c r="J426" s="2">
-        <v>0</v>
-      </c>
-      <c r="K426" s="2">
-        <v>0</v>
-      </c>
-      <c r="L426" s="2">
-        <v>0</v>
-      </c>
-      <c r="M426" s="3">
-        <v>0</v>
-      </c>
-      <c r="N426" s="2">
-        <v>0</v>
-      </c>
-      <c r="O426" s="2">
-        <v>0</v>
-      </c>
-      <c r="P426" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q426" s="2">
-        <v>0</v>
-      </c>
-      <c r="R426" s="2">
-        <v>0</v>
-      </c>
-      <c r="S426" s="2">
-        <v>0</v>
-      </c>
-      <c r="T426" s="2">
-        <v>0</v>
-      </c>
-      <c r="U426" s="2">
-        <v>0</v>
-      </c>
-      <c r="V426" s="3">
-        <v>0</v>
-      </c>
-      <c r="W426" s="2">
-        <v>0</v>
-      </c>
-      <c r="X426" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y426" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB426" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH426" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM426" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR426" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS426" s="2">
-        <v>0</v>
-      </c>
+      <c r="A426" s="1"/>
+      <c r="B426" s="4"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="2"/>
+      <c r="H426" s="2"/>
+      <c r="I426" s="2"/>
+      <c r="J426" s="2"/>
+      <c r="K426" s="2"/>
+      <c r="L426" s="2"/>
+      <c r="M426" s="3"/>
+      <c r="N426" s="2"/>
+      <c r="O426" s="2"/>
+      <c r="P426" s="2"/>
+      <c r="Q426" s="2"/>
+      <c r="R426" s="2"/>
+      <c r="S426" s="2"/>
+      <c r="T426" s="2"/>
+      <c r="U426" s="2"/>
+      <c r="V426" s="3"/>
+      <c r="W426" s="2"/>
+      <c r="X426" s="2"/>
+      <c r="Y426" s="2"/>
+      <c r="Z426" s="2"/>
+      <c r="AA426" s="2"/>
+      <c r="AB426" s="3"/>
+      <c r="AC426" s="2"/>
+      <c r="AD426" s="2"/>
+      <c r="AE426" s="2"/>
+      <c r="AF426" s="2"/>
+      <c r="AG426" s="2"/>
+      <c r="AH426" s="3"/>
+      <c r="AI426" s="2"/>
+      <c r="AJ426" s="2"/>
+      <c r="AK426" s="2"/>
+      <c r="AL426" s="2"/>
+      <c r="AM426" s="3"/>
+      <c r="AN426" s="2"/>
+      <c r="AO426" s="2"/>
+      <c r="AP426" s="2"/>
+      <c r="AQ426" s="2"/>
+      <c r="AR426" s="2"/>
+      <c r="AS426" s="2"/>
     </row>
     <row r="427" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A427" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B427" s="4">
-        <v>26015</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F427" s="3">
-        <v>0</v>
-      </c>
-      <c r="G427" s="2">
-        <v>0</v>
-      </c>
-      <c r="H427" s="2">
-        <v>0</v>
-      </c>
-      <c r="I427" s="2">
-        <v>0</v>
-      </c>
-      <c r="J427" s="2">
-        <v>0</v>
-      </c>
-      <c r="K427" s="2">
-        <v>0</v>
-      </c>
-      <c r="L427" s="2">
-        <v>0</v>
-      </c>
-      <c r="M427" s="3">
-        <v>0</v>
-      </c>
-      <c r="N427" s="2">
-        <v>0</v>
-      </c>
-      <c r="O427" s="2">
-        <v>0</v>
-      </c>
-      <c r="P427" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q427" s="2">
-        <v>0</v>
-      </c>
-      <c r="R427" s="2">
-        <v>0</v>
-      </c>
-      <c r="S427" s="2">
-        <v>0</v>
-      </c>
-      <c r="T427" s="2">
-        <v>0</v>
-      </c>
-      <c r="U427" s="2">
-        <v>0</v>
-      </c>
-      <c r="V427" s="3">
-        <v>0</v>
-      </c>
-      <c r="W427" s="2">
-        <v>0</v>
-      </c>
-      <c r="X427" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y427" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB427" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH427" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM427" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR427" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS427" s="2">
-        <v>0</v>
-      </c>
+      <c r="A427" s="1"/>
+      <c r="B427" s="4"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="2"/>
+      <c r="H427" s="2"/>
+      <c r="I427" s="2"/>
+      <c r="J427" s="2"/>
+      <c r="K427" s="2"/>
+      <c r="L427" s="2"/>
+      <c r="M427" s="3"/>
+      <c r="N427" s="2"/>
+      <c r="O427" s="2"/>
+      <c r="P427" s="2"/>
+      <c r="Q427" s="2"/>
+      <c r="R427" s="2"/>
+      <c r="S427" s="2"/>
+      <c r="T427" s="2"/>
+      <c r="U427" s="2"/>
+      <c r="V427" s="3"/>
+      <c r="W427" s="2"/>
+      <c r="X427" s="2"/>
+      <c r="Y427" s="2"/>
+      <c r="Z427" s="2"/>
+      <c r="AA427" s="2"/>
+      <c r="AB427" s="3"/>
+      <c r="AC427" s="2"/>
+      <c r="AD427" s="2"/>
+      <c r="AE427" s="2"/>
+      <c r="AF427" s="2"/>
+      <c r="AG427" s="2"/>
+      <c r="AH427" s="3"/>
+      <c r="AI427" s="2"/>
+      <c r="AJ427" s="2"/>
+      <c r="AK427" s="2"/>
+      <c r="AL427" s="2"/>
+      <c r="AM427" s="3"/>
+      <c r="AN427" s="2"/>
+      <c r="AO427" s="2"/>
+      <c r="AP427" s="2"/>
+      <c r="AQ427" s="2"/>
+      <c r="AR427" s="2"/>
+      <c r="AS427" s="2"/>
     </row>
     <row r="428" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A428" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="F428" s="3">
-        <v>0</v>
-      </c>
-      <c r="G428" s="2">
-        <v>0</v>
-      </c>
-      <c r="H428" s="2">
-        <v>0</v>
-      </c>
-      <c r="I428" s="2">
-        <v>0</v>
-      </c>
-      <c r="J428" s="2">
-        <v>0</v>
-      </c>
-      <c r="K428" s="2">
-        <v>0</v>
-      </c>
-      <c r="L428" s="2">
-        <v>0</v>
-      </c>
-      <c r="M428" s="3">
-        <v>0</v>
-      </c>
-      <c r="N428" s="2">
-        <v>0</v>
-      </c>
-      <c r="O428" s="2">
-        <v>0</v>
-      </c>
-      <c r="P428" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q428" s="2">
-        <v>0</v>
-      </c>
-      <c r="R428" s="2">
-        <v>0</v>
-      </c>
-      <c r="S428" s="2">
-        <v>0</v>
-      </c>
-      <c r="T428" s="2">
-        <v>0</v>
-      </c>
-      <c r="U428" s="2">
-        <v>0</v>
-      </c>
-      <c r="V428" s="3">
-        <v>0</v>
-      </c>
-      <c r="W428" s="2">
-        <v>0</v>
-      </c>
-      <c r="X428" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y428" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB428" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH428" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM428" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR428" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS428" s="2">
-        <v>0</v>
-      </c>
+      <c r="A428" s="1"/>
+      <c r="B428" s="2"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="2"/>
+      <c r="H428" s="2"/>
+      <c r="I428" s="2"/>
+      <c r="J428" s="2"/>
+      <c r="K428" s="2"/>
+      <c r="L428" s="2"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="2"/>
+      <c r="O428" s="2"/>
+      <c r="P428" s="2"/>
+      <c r="Q428" s="2"/>
+      <c r="R428" s="2"/>
+      <c r="S428" s="2"/>
+      <c r="T428" s="2"/>
+      <c r="U428" s="2"/>
+      <c r="V428" s="3"/>
+      <c r="W428" s="2"/>
+      <c r="X428" s="2"/>
+      <c r="Y428" s="2"/>
+      <c r="Z428" s="2"/>
+      <c r="AA428" s="2"/>
+      <c r="AB428" s="3"/>
+      <c r="AC428" s="2"/>
+      <c r="AD428" s="2"/>
+      <c r="AE428" s="2"/>
+      <c r="AF428" s="2"/>
+      <c r="AG428" s="2"/>
+      <c r="AH428" s="3"/>
+      <c r="AI428" s="2"/>
+      <c r="AJ428" s="2"/>
+      <c r="AK428" s="2"/>
+      <c r="AL428" s="2"/>
+      <c r="AM428" s="3"/>
+      <c r="AN428" s="2"/>
+      <c r="AO428" s="2"/>
+      <c r="AP428" s="2"/>
+      <c r="AQ428" s="2"/>
+      <c r="AR428" s="2"/>
+      <c r="AS428" s="2"/>
     </row>
     <row r="429" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A429" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B429" s="4">
-        <v>942</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F429" s="3">
-        <v>1</v>
-      </c>
-      <c r="G429" s="2">
-        <v>0</v>
-      </c>
-      <c r="H429" s="2">
-        <v>0</v>
-      </c>
-      <c r="I429" s="2">
-        <v>0</v>
-      </c>
-      <c r="J429" s="2">
-        <v>0</v>
-      </c>
-      <c r="K429" s="2">
-        <v>0</v>
-      </c>
-      <c r="L429" s="2">
-        <v>0</v>
-      </c>
-      <c r="M429" s="3">
-        <v>1</v>
-      </c>
-      <c r="N429" s="2">
-        <v>0</v>
-      </c>
-      <c r="O429" s="2">
-        <v>0</v>
-      </c>
-      <c r="P429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q429" s="2">
-        <v>0</v>
-      </c>
-      <c r="R429" s="2">
-        <v>0</v>
-      </c>
-      <c r="S429" s="2">
-        <v>0</v>
-      </c>
-      <c r="T429" s="2">
-        <v>1</v>
-      </c>
-      <c r="U429" s="2">
-        <v>0</v>
-      </c>
-      <c r="V429" s="3">
-        <v>1</v>
-      </c>
-      <c r="W429" s="2">
-        <v>0</v>
-      </c>
-      <c r="X429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y429" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB429" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH429" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM429" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR429" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS429" s="2">
-        <v>0</v>
-      </c>
+      <c r="A429" s="1"/>
+      <c r="B429" s="4"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
+      <c r="J429" s="2"/>
+      <c r="K429" s="2"/>
+      <c r="L429" s="2"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="2"/>
+      <c r="O429" s="2"/>
+      <c r="P429" s="2"/>
+      <c r="Q429" s="2"/>
+      <c r="R429" s="2"/>
+      <c r="S429" s="2"/>
+      <c r="T429" s="2"/>
+      <c r="U429" s="2"/>
+      <c r="V429" s="3"/>
+      <c r="W429" s="2"/>
+      <c r="X429" s="2"/>
+      <c r="Y429" s="2"/>
+      <c r="Z429" s="2"/>
+      <c r="AA429" s="2"/>
+      <c r="AB429" s="3"/>
+      <c r="AC429" s="2"/>
+      <c r="AD429" s="2"/>
+      <c r="AE429" s="2"/>
+      <c r="AF429" s="2"/>
+      <c r="AG429" s="2"/>
+      <c r="AH429" s="3"/>
+      <c r="AI429" s="2"/>
+      <c r="AJ429" s="2"/>
+      <c r="AK429" s="2"/>
+      <c r="AL429" s="2"/>
+      <c r="AM429" s="3"/>
+      <c r="AN429" s="2"/>
+      <c r="AO429" s="2"/>
+      <c r="AP429" s="2"/>
+      <c r="AQ429" s="2"/>
+      <c r="AR429" s="2"/>
+      <c r="AS429" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U429"/>
